--- a/HotelPriceCalculator/Data/HOLIDAY INN RESORT BODRUM.xlsx
+++ b/HotelPriceCalculator/Data/HOLIDAY INN RESORT BODRUM.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Odabasi\source\repos\HotelPriceCalculator\HotelPriceCalculator\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="19320" windowHeight="7710" tabRatio="889"/>
+    <workbookView xWindow="720" yWindow="348" windowWidth="19320" windowHeight="7716" tabRatio="889"/>
   </bookViews>
   <sheets>
     <sheet name="BODRUM " sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BODRUM '!$A$1:$H$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BODRUM '!$A$1:$H$37</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>SEZON</t>
   </si>
@@ -84,11 +89,14 @@
   <si>
     <t>1. 06.04.2024-30.06.2024 Tarihler arasi gerçekleştirilen satışlara  % 40 Early Booking indirimi uygulanır.</t>
   </si>
+  <si>
+    <t>SINGLE ROOM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _T_L"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;TL&quot;"/>
@@ -96,7 +104,7 @@
     <numFmt numFmtId="167" formatCode="[$€-2]\ #,##0.00"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,15 +276,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -1055,9 +1054,9 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1074,33 +1073,33 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="33" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1109,16 +1108,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="20" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="20" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="21" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="21" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1126,29 +1125,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="21" fillId="33" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="22" fillId="33" borderId="24" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="32" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="32" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="33" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="33" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="22" fillId="33" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1160,8 +1159,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1203,20 +1202,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="33" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="33" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="22" fillId="33" borderId="36" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="37" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="37" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="33" borderId="31" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="23" fillId="33" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="22" fillId="33" borderId="35" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="22" fillId="33" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1229,13 +1227,13 @@
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="33" borderId="39" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="40" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="40" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="39" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="39" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,68 +1251,62 @@
     <xf numFmtId="167" fontId="22" fillId="34" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="34" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="34" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="33" borderId="28" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="33" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="22" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="24" fillId="34" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="34" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="34" borderId="26" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="33" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="33" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="33" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="33" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="33" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="33" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="28" fillId="33" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="33" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="33" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="33" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="33" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="33" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,9 +1394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1442,9 +1434,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1479,7 +1471,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1514,7 +1506,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1688,98 +1680,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" customWidth="1"/>
     <col min="3" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="109"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="106"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1">
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="103"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="78"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75">
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="77"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6">
       <c r="A8" s="41"/>
       <c r="B8" s="32"/>
       <c r="C8" s="52">
@@ -1801,7 +1793,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1">
+    <row r="9" spans="1:8" ht="16.2" thickBot="1">
       <c r="A9" s="42"/>
       <c r="B9" s="33"/>
       <c r="C9" s="53">
@@ -1823,537 +1815,539 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="68"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="87"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A11" s="89" t="s">
+    <row r="10" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A10" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88">
         <v>200</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D10" s="88">
         <v>220</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E10" s="84">
         <v>200</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F10" s="81">
         <v>190</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G10" s="89">
         <v>160</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H10" s="81">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
-      <c r="A12" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="43">
+    <row r="11" spans="1:8" ht="15.6">
+      <c r="A11" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="43">
         <v>1.8</v>
       </c>
-      <c r="C12" s="23">
-        <f t="shared" ref="C12:H12" si="0">C11*$B12</f>
+      <c r="C11" s="23">
+        <f t="shared" ref="C11:H11" si="0">C10*$B11</f>
         <v>360</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D11" s="23">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E11" s="37">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G11" s="37">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H11" s="23">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="59" t="s">
+    <row r="12" spans="1:8" ht="15.6">
+      <c r="A12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B12" s="44">
         <v>2</v>
       </c>
-      <c r="C13" s="24">
-        <f t="shared" ref="C13:H13" si="1">C11*$B13</f>
+      <c r="C12" s="24">
+        <f t="shared" ref="C12:H12" si="1">C10*$B12</f>
         <v>400</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D12" s="24">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E12" s="38">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="F13" s="24">
-        <f t="shared" ref="F13" si="2">F11*$B13</f>
+      <c r="F12" s="24">
+        <f t="shared" ref="F12" si="2">F10*$B12</f>
         <v>380</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G12" s="38">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H12" s="24">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A14" s="73" t="s">
+    <row r="13" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A13" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="74">
+      <c r="B13" s="73">
         <v>2.7</v>
       </c>
-      <c r="C14" s="76">
-        <f t="shared" ref="C14:H14" si="3">C11*$B14</f>
+      <c r="C13" s="75">
+        <f t="shared" ref="C13:H13" si="3">C10*$B13</f>
         <v>540</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D13" s="75">
         <f t="shared" si="3"/>
         <v>594</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E13" s="74">
         <f t="shared" si="3"/>
         <v>540</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F13" s="75">
         <f t="shared" si="3"/>
         <v>513</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G13" s="74">
         <f t="shared" si="3"/>
         <v>432</v>
       </c>
-      <c r="H14" s="76">
+      <c r="H13" s="75">
         <f t="shared" si="3"/>
         <v>405</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="58" t="s">
+    <row r="14" spans="1:8" ht="15.6">
+      <c r="A14" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="23">
-        <f t="shared" ref="C15:H15" si="4">C11*$B12</f>
+      <c r="B14" s="43"/>
+      <c r="C14" s="23">
+        <f t="shared" ref="C14:H14" si="4">C10*$B11</f>
         <v>360</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D14" s="23">
         <f t="shared" si="4"/>
         <v>396</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E14" s="37">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F14" s="23">
         <f t="shared" si="4"/>
         <v>342</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G14" s="37">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H14" s="23">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" ht="15.6">
+      <c r="A15" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="24">
+        <f t="shared" ref="C15:H15" si="5">C10*$B12</f>
+        <v>400</v>
+      </c>
+      <c r="D15" s="24">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="E15" s="38">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="F15" s="24">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="24">
-        <f t="shared" ref="C16:H16" si="5">C11*$B13</f>
+        <f t="shared" ref="C16:H16" si="6">C10*$B12</f>
         <v>400</v>
       </c>
       <c r="D16" s="24">
-        <f t="shared" si="5"/>
-        <v>440</v>
-      </c>
-      <c r="E16" s="38">
-        <f t="shared" si="5"/>
-        <v>400</v>
-      </c>
-      <c r="F16" s="24">
-        <f t="shared" si="5"/>
-        <v>380</v>
-      </c>
-      <c r="G16" s="38">
-        <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="H16" s="24">
-        <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="24">
-        <f t="shared" ref="C17:H17" si="6">C11*$B13</f>
-        <v>400</v>
-      </c>
-      <c r="D17" s="24">
         <f t="shared" si="6"/>
         <v>440</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E16" s="38">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F16" s="24">
         <f t="shared" si="6"/>
         <v>380</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G16" s="38">
         <f t="shared" si="6"/>
         <v>320</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H16" s="24">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="59" t="s">
+    <row r="17" spans="1:8" ht="15.6">
+      <c r="A17" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B17" s="44">
         <v>2.5</v>
       </c>
-      <c r="C18" s="24">
-        <f t="shared" ref="C18:H18" si="7">C11*$B18</f>
+      <c r="C17" s="24">
+        <f t="shared" ref="C17:H17" si="7">C10*$B17</f>
         <v>500</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D17" s="24">
         <f t="shared" si="7"/>
         <v>550</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E17" s="38">
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F17" s="24">
         <f t="shared" si="7"/>
         <v>475</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G17" s="38">
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H17" s="24">
         <f t="shared" si="7"/>
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A19" s="60" t="s">
+    <row r="18" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A18" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="35">
-        <f t="shared" ref="C19:H19" si="8">C11*$B14</f>
+      <c r="B18" s="45"/>
+      <c r="C18" s="35">
+        <f t="shared" ref="C18:H18" si="8">C10*$B13</f>
         <v>540</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D18" s="35">
         <f t="shared" si="8"/>
         <v>594</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E18" s="40">
         <f t="shared" si="8"/>
         <v>540</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F18" s="35">
         <f t="shared" si="8"/>
         <v>513</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G18" s="40">
         <f t="shared" si="8"/>
         <v>432</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H18" s="35">
         <f t="shared" si="8"/>
         <v>405</v>
       </c>
     </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="71"/>
+    </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="72"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="70" t="s">
+      <c r="A20" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="83">
-        <f t="shared" ref="C21:H21" si="9">C11-10</f>
+      <c r="B20" s="70"/>
+      <c r="C20" s="82">
+        <f t="shared" ref="C20:H20" si="9">C10-10</f>
         <v>190</v>
       </c>
-      <c r="D21" s="83">
+      <c r="D20" s="82">
         <f t="shared" si="9"/>
         <v>210</v>
       </c>
-      <c r="E21" s="83">
+      <c r="E20" s="82">
         <f t="shared" si="9"/>
         <v>190</v>
       </c>
-      <c r="F21" s="83">
+      <c r="F20" s="82">
         <f t="shared" si="9"/>
         <v>180</v>
       </c>
-      <c r="G21" s="83">
+      <c r="G20" s="82">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H20" s="83">
         <f t="shared" si="9"/>
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A22" s="58" t="s">
+    <row r="21" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A21" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="23">
-        <f t="shared" ref="C22:H22" si="10">C21*$B12</f>
+      <c r="B21" s="43"/>
+      <c r="C21" s="23">
+        <f t="shared" ref="C21:H21" si="10">C20*$B11</f>
         <v>342</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D21" s="23">
         <f t="shared" si="10"/>
         <v>378</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E21" s="37">
         <f t="shared" si="10"/>
         <v>342</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F21" s="23">
         <f t="shared" si="10"/>
         <v>324</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G21" s="37">
         <f t="shared" si="10"/>
         <v>270</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H21" s="23">
         <f t="shared" si="10"/>
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A23" s="60" t="s">
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A22" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="35">
-        <f t="shared" ref="C23:H23" si="11">C21*$B13</f>
+      <c r="B22" s="45"/>
+      <c r="C22" s="35">
+        <f t="shared" ref="C22:H22" si="11">C20*$B12</f>
         <v>380</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D22" s="35">
         <f t="shared" si="11"/>
         <v>420</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E22" s="40">
         <f t="shared" si="11"/>
         <v>380</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F22" s="35">
         <f t="shared" si="11"/>
         <v>360</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G22" s="40">
         <f t="shared" si="11"/>
         <v>300</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H22" s="35">
         <f t="shared" si="11"/>
         <v>280</v>
       </c>
     </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A23" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="68"/>
+      <c r="C23" s="76">
+        <f t="shared" ref="C23:H23" si="12">C20*$B11</f>
+        <v>342</v>
+      </c>
+      <c r="D23" s="76">
+        <f t="shared" si="12"/>
+        <v>378</v>
+      </c>
+      <c r="E23" s="66">
+        <f t="shared" si="12"/>
+        <v>342</v>
+      </c>
+      <c r="F23" s="76">
+        <f t="shared" si="12"/>
+        <v>324</v>
+      </c>
+      <c r="G23" s="66">
+        <f t="shared" si="12"/>
+        <v>270</v>
+      </c>
+      <c r="H23" s="76">
+        <f t="shared" si="12"/>
+        <v>252</v>
+      </c>
+    </row>
     <row r="24" spans="1:8" ht="16.5" customHeight="1">
       <c r="A24" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="77">
-        <f t="shared" ref="C24:H24" si="12">C21*$B12</f>
-        <v>342</v>
-      </c>
-      <c r="D24" s="77">
-        <f t="shared" si="12"/>
-        <v>378</v>
-      </c>
-      <c r="E24" s="66">
-        <f t="shared" si="12"/>
-        <v>342</v>
-      </c>
-      <c r="F24" s="77">
-        <f t="shared" si="12"/>
-        <v>324</v>
-      </c>
-      <c r="G24" s="66">
-        <f t="shared" si="12"/>
-        <v>270</v>
-      </c>
-      <c r="H24" s="77">
-        <f t="shared" si="12"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A25" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="77">
-        <f t="shared" ref="C25:H25" si="13">C21*$B13</f>
+      <c r="B24" s="68"/>
+      <c r="C24" s="76">
+        <f t="shared" ref="C24:H24" si="13">C20*$B12</f>
         <v>380</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D24" s="76">
         <f t="shared" si="13"/>
         <v>420</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E24" s="66">
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F24" s="76">
         <f t="shared" si="13"/>
         <v>360</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G24" s="66">
         <f t="shared" si="13"/>
         <v>300</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H24" s="76">
         <f t="shared" si="13"/>
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A26" s="60" t="s">
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A25" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="35">
-        <f t="shared" ref="C26:H26" si="14">C21*$B13</f>
+      <c r="B25" s="45"/>
+      <c r="C25" s="35">
+        <f t="shared" ref="C25:H25" si="14">C20*$B12</f>
         <v>380</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D25" s="35">
         <f t="shared" si="14"/>
         <v>420</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E25" s="40">
         <f t="shared" si="14"/>
         <v>380</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F25" s="35">
         <f t="shared" si="14"/>
         <v>360</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G25" s="40">
         <f t="shared" si="14"/>
         <v>300</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H25" s="35">
         <f t="shared" si="14"/>
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A28" s="61" t="s">
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A26" s="57"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="34"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A27" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="63">
+      <c r="B27" s="46"/>
+      <c r="C27" s="63">
         <v>2</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D27" s="63">
         <v>2</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E27" s="64">
         <v>2</v>
       </c>
-      <c r="F28" s="63">
+      <c r="F27" s="63">
         <v>2</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G27" s="64">
         <v>2</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H27" s="63">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="17" t="s">
+    <row r="28" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A28" s="62"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.6">
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.6">
+      <c r="A30" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.6">
+      <c r="A31" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -2361,22 +2355,20 @@
       <c r="G31" s="5"/>
       <c r="H31" s="25"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="86" t="s">
-        <v>21</v>
+    <row r="32" spans="1:8" ht="15.6">
+      <c r="A32" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.6">
+      <c r="A33" s="10"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2385,8 +2377,10 @@
       <c r="G33" s="7"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="10"/>
+    <row r="34" spans="1:8" ht="15.6">
+      <c r="A34" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2395,51 +2389,39 @@
       <c r="G34" s="7"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="12" t="s">
+    <row r="35" spans="1:8" ht="15.6">
+      <c r="A35" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="27"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="15" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="29"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="28"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.4" thickBot="1">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
